--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srkzgrg/Desktop/webkert-kotprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449BFD0-DF77-4948-A97B-2AD80A24C8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D4A5C-D29E-4D45-90FA-CB6DE003CEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,12 +174,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -456,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="194" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -503,7 +505,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -514,7 +516,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -525,7 +527,7 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -555,7 +557,7 @@
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -577,7 +579,7 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -588,7 +590,7 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -610,7 +612,7 @@
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -643,7 +645,7 @@
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -676,7 +678,7 @@
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srkzgrg/Desktop/webkert-kotprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D4A5C-D29E-4D45-90FA-CB6DE003CEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C49A33-4820-8F4D-92E1-CDC80BB3952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -238,6 +244,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -459,7 +466,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -523,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -535,7 +542,7 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -546,7 +553,7 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -601,7 +608,7 @@
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -612,7 +619,7 @@
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -623,7 +630,7 @@
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -634,7 +641,7 @@
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -656,7 +663,7 @@
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -689,7 +696,7 @@
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>6</v>
       </c>
       <c r="C21" s="4" t="s">

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srkzgrg/Desktop/webkert-kotprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C49A33-4820-8F4D-92E1-CDC80BB3952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E8220-F8A8-314F-81E9-1196E30AA294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -245,6 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -466,7 +473,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -575,7 +582,7 @@
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -652,7 +659,7 @@
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="11">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">

--- a/pontozas.xlsx
+++ b/pontozas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srkzgrg/Desktop/webkert-kotprog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E8220-F8A8-314F-81E9-1196E30AA294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1B14E-D155-414B-A633-42A05960B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="194" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -659,7 +659,7 @@
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
